--- a/Data/EC/NIT-9007832490.xlsx
+++ b/Data/EC/NIT-9007832490.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CABBE8E0-FDA8-4F8D-B49A-D46F38D8C364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{148DE846-49B7-4BB4-8B60-547FD77A585C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9ABD7BDF-2167-4F99-906E-E5F6257E5805}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ECD3AA2E-84BC-4B58-917B-667620FC8380}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,121 +71,121 @@
     <t>JENNY CARRIZOSA ZUÑIGA</t>
   </si>
   <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1050037185</t>
+  </si>
+  <si>
+    <t>SANDRA MARCELA ANILLO LORA</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1050968129</t>
+  </si>
+  <si>
+    <t>KRISTIAN ANDRES ROCHA ROCHA</t>
+  </si>
+  <si>
+    <t>7886256</t>
+  </si>
+  <si>
+    <t>AROLDO RAFAEL ALMEIDA TORRES</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1050968129</t>
-  </si>
-  <si>
-    <t>KRISTIAN ANDRES ROCHA ROCHA</t>
-  </si>
-  <si>
-    <t>7886256</t>
-  </si>
-  <si>
-    <t>AROLDO RAFAEL ALMEIDA TORRES</t>
-  </si>
-  <si>
-    <t>1050037185</t>
-  </si>
-  <si>
-    <t>SANDRA MARCELA ANILLO LORA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -284,7 +284,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -297,9 +299,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -499,23 +499,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,10 +543,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,7 +599,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A8934F-56CA-AEC0-C9E1-E7C35E96D04B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC8533E2-B1C5-E33A-8516-585AD8EE8EA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,7 +950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DB6253-A4F9-4644-A4F1-CE859597DA7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5814020A-98E2-48D3-9A19-6F9C129266EE}">
   <dimension ref="B2:J107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1128,10 +1128,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>30208</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1142,19 +1142,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1171,13 +1171,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1188,19 +1188,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1220,10 +1220,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1234,19 +1234,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1263,13 +1263,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1280,19 +1280,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1309,13 +1309,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1326,19 +1326,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1355,13 +1355,13 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1372,19 +1372,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1401,13 +1401,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1418,19 +1418,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1447,13 +1447,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1464,19 +1464,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1493,13 +1493,13 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1510,19 +1510,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1533,19 +1533,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1556,19 +1556,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F35" s="18">
         <v>29509</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1585,13 +1585,13 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
         <v>29509</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1602,19 +1602,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1625,19 +1625,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F38" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1648,19 +1648,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
         <v>29509</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1677,13 +1677,13 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F40" s="18">
         <v>29509</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1694,19 +1694,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F41" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1717,19 +1717,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F42" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1740,19 +1740,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F43" s="18">
         <v>29509</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1769,13 +1769,13 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F44" s="18">
         <v>29509</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1786,19 +1786,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1809,19 +1809,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1832,19 +1832,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
         <v>29509</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1861,13 +1861,13 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
         <v>29509</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1878,19 +1878,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>30208</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1901,19 +1901,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1924,19 +1924,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G51" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1947,19 +1947,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G52" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1970,19 +1970,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -1993,19 +1993,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2016,19 +2016,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G55" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2039,19 +2039,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2062,19 +2062,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2085,19 +2085,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2108,19 +2108,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2131,19 +2131,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2154,19 +2154,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2177,19 +2177,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2200,19 +2200,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2223,19 +2223,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2246,19 +2246,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2269,19 +2269,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
       </c>
       <c r="G66" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2292,19 +2292,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2315,19 +2315,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
       </c>
       <c r="G68" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2338,19 +2338,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2361,19 +2361,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
       </c>
       <c r="G70" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2384,19 +2384,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
       </c>
       <c r="G71" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2407,19 +2407,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
       </c>
       <c r="G72" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2430,10 +2430,10 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>35</v>
@@ -2442,7 +2442,7 @@
         <v>31249</v>
       </c>
       <c r="G73" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2453,13 +2453,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2476,13 +2476,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2499,13 +2499,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2522,13 +2522,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2545,13 +2545,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2568,13 +2568,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2591,13 +2591,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2614,13 +2614,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2637,13 +2637,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2660,13 +2660,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2683,19 +2683,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
       </c>
       <c r="G84" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2706,19 +2706,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
       </c>
       <c r="G85" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2729,19 +2729,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
       </c>
       <c r="G86" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2752,19 +2752,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
       </c>
       <c r="G87" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2775,19 +2775,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F88" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G88" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2798,19 +2798,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F89" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2821,19 +2821,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F90" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2844,19 +2844,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F91" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G91" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2867,19 +2867,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F92" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2890,19 +2890,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F93" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G93" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2913,19 +2913,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F94" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2936,19 +2936,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F95" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -2959,19 +2959,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F96" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -2982,19 +2982,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F97" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3005,19 +3005,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D98" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="F98" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3028,19 +3028,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D99" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F99" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3051,19 +3051,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E100" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="F100" s="18">
-        <v>29509</v>
+        <v>30208</v>
       </c>
       <c r="G100" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3074,19 +3074,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D101" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E101" s="22" t="s">
-        <v>43</v>
-      </c>
       <c r="F101" s="24">
-        <v>29509</v>
+        <v>30208</v>
       </c>
       <c r="G101" s="24">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="25"/>
       <c r="I101" s="25"/>
